--- a/每日工作记录/郭永中(荆门)/派工单预算造价.xlsx
+++ b/每日工作记录/郭永中(荆门)/派工单预算造价.xlsx
@@ -1,31 +1,223 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\engine\program\每日工作记录\郭永中(荆门)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4D7F7F-AE78-427D-AAB3-C4E6EE1D3004}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+  <si>
+    <t>委托编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税包干综合单价(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是/否转扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5#楼,2#楼贴连廊地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#楼转沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#楼十四层连廊钻混凝土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风机房配管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#楼铺连廊地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10#楼一层门梁拆模，摸砼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#楼连廊清渣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负一层风机房配管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#楼贴连廊地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#楼连廊贴地砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#楼连廊转材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40Φ管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25Φ管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20Φ管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40Φ弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25Φ弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿墙孔32Φ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +241,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +543,781 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>190</v>
+      </c>
+      <c r="H3" s="4">
+        <f>F3*G3</f>
+        <v>760</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>190</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H54" si="0">F4*G4</f>
+        <v>1140</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>190</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>190</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4">
+        <v>80</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4">
+        <v>35</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>190</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>190</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>140</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>190</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4">
+        <v>24</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4">
+        <v>40</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="4">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4">
+        <v>28</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>140</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>190</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>190</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4">
+        <v>8</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4">
+        <v>8</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="4">
+        <v>20</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="4">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="4">
+        <v>12</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4">
+        <v>8</v>
+      </c>
+      <c r="G35" s="4">
+        <v>190</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3</v>
+      </c>
+      <c r="G36" s="4">
+        <v>140</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>